--- a/jpcore-r4/feature/swg1-capablitystatement/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/swg1-capablitystatement/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-15T11:53:21+00:00</t>
+    <t>2024-10-17T02:05:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg1-capablitystatement/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/swg1-capablitystatement/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-17T02:05:00+00:00</t>
+    <t>2024-10-18T00:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg1-capablitystatement/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/swg1-capablitystatement/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-18T00:53:56+00:00</t>
+    <t>2024-10-21T00:09:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg1-capablitystatement/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/swg1-capablitystatement/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-21T00:09:37+00:00</t>
+    <t>2024-10-22T07:54:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
